--- a/sheet_multiple.xlsx
+++ b/sheet_multiple.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>Zjazd</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Sala</t>
   </si>
   <si>
-    <t>2021-07-01</t>
-  </si>
-  <si>
     <t>9.20-15.00</t>
   </si>
   <si>
@@ -56,33 +53,21 @@
     <t>W</t>
   </si>
   <si>
-    <t>STACJONARNIE</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>13.00- 16.00</t>
+    <t>stacjonarnie</t>
+  </si>
+  <si>
+    <t>13.00-16.00</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>33.0</t>
-  </si>
-  <si>
     <t>9.00-11.00</t>
   </si>
   <si>
     <t>Jarek Robin</t>
   </si>
   <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
     <t>Gotowanie</t>
   </si>
   <si>
@@ -101,19 +86,10 @@
     <t>Anna Kowal</t>
   </si>
   <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>2021-08-03</t>
-  </si>
-  <si>
     <t>9.20-12.00</t>
   </si>
   <si>
     <t>Materiały</t>
-  </si>
-  <si>
-    <t>2021-08-04</t>
   </si>
   <si>
     <t>9.20-14.00</t>
@@ -126,6 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -153,7 +132,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -169,34 +148,62 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,205 +453,183 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44378.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>4.0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44378.0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44378.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44379.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44379.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44379.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.15</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -694,177 +679,177 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44411.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44411.0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44411.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44412.0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44412.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44412.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
+      <c r="G7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>
